--- a/src/test/resources/excel/insurance_sample_no_header.xlsx
+++ b/src/test/resources/excel/insurance_sample_no_header.xlsx
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t xml:space="preserve">119736</t>
   </si>
   <si>
     <t xml:space="preserve">FL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAY COUNTY</t>
   </si>
   <si>
     <t xml:space="preserve">9223372036854775808</t>
@@ -93,6 +90,7 @@
       <color rgb="FF2AACB8"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,10 +240,10 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L20" activeCellId="0" sqref="L20"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.99"/>
   </cols>
@@ -257,14 +255,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="str">
+        <f aca="false">UPPER("clay county")</f>
+        <v>CLAY COUNTY</v>
       </c>
       <c r="D1" s="3" t="n">
         <v>922337203685478</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="2" t="n">
         <v>498960</v>
@@ -297,10 +296,10 @@
         <v>-81.711777</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="R1" s="2" t="n">
         <v>1</v>
@@ -311,13 +310,14 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
+      <c r="C2" s="2" t="str">
+        <f aca="false">UPPER("clay county")</f>
+        <v>CLAY COUNTY</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1322376.3</v>
@@ -356,10 +356,10 @@
         <v>-81.707664</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>3</v>
@@ -370,13 +370,14 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
+      <c r="C3" s="2" t="str">
+        <f aca="false">UPPER("clay county")</f>
+        <v>CLAY COUNTY</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>190724.4</v>
@@ -415,10 +416,10 @@
         <v>-81.700455</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>1</v>
@@ -429,13 +430,14 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
+      <c r="C4" s="2" t="str">
+        <f aca="false">UPPER("clay county")</f>
+        <v>CLAY COUNTY</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -474,10 +476,10 @@
         <v>-81.707703</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>3</v>
@@ -488,13 +490,14 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
+      <c r="C5" s="2" t="str">
+        <f aca="false">UPPER("clay county")</f>
+        <v>CLAY COUNTY</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -533,10 +536,10 @@
         <v>-81.702675</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>1</v>
